--- a/LS-MyFriendBookApp-Protokoll.xlsx
+++ b/LS-MyFriendBookApp-Protokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel.Wulf\Documents\FIA95\ANW FN\MyFriendbookApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E82696F-5B29-4190-9DCD-5DF94C5848A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECCA494-5AD9-4DEB-ADA7-E5CC16D8BE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Teamplayer1</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Arrays erstellt</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Speicherung</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>Editieren</t>
   </si>
 </sst>
 </file>
@@ -548,7 +560,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,20 +703,44 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="9">
+        <v>43809</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="9">
+        <v>43809</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
